--- a/Code/Results/Cases/Case_0_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_79/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.009228450266874688</v>
+        <v>0.01500074871952961</v>
       </c>
       <c r="D2">
-        <v>0.03595298443305173</v>
+        <v>0.1075639941004014</v>
       </c>
       <c r="E2">
-        <v>0.09580557568164849</v>
+        <v>0.1326676520867736</v>
       </c>
       <c r="F2">
-        <v>4.376060458548523</v>
+        <v>2.729329427611702</v>
       </c>
       <c r="G2">
-        <v>4.462320094240226</v>
+        <v>2.200389605886585</v>
       </c>
       <c r="H2">
-        <v>2.215589627993836</v>
+        <v>1.60977693953663</v>
       </c>
       <c r="I2">
-        <v>2.996434061969936</v>
+        <v>1.648694371904611</v>
       </c>
       <c r="J2">
-        <v>0.2745193973878486</v>
+        <v>0.2129241647032245</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.00835838716246684</v>
+        <v>0.01495475488380649</v>
       </c>
       <c r="D3">
-        <v>0.03580181700472052</v>
+        <v>0.1077514045516297</v>
       </c>
       <c r="E3">
-        <v>0.08641192903490946</v>
+        <v>0.13160562399489</v>
       </c>
       <c r="F3">
-        <v>3.78986443999267</v>
+        <v>2.614574432376287</v>
       </c>
       <c r="G3">
-        <v>3.839093852237397</v>
+        <v>2.070184954696117</v>
       </c>
       <c r="H3">
-        <v>1.928766487874071</v>
+        <v>1.556616617359111</v>
       </c>
       <c r="I3">
-        <v>2.585456446578689</v>
+        <v>1.565173675784195</v>
       </c>
       <c r="J3">
-        <v>0.2394827407526066</v>
+        <v>0.2067062043402927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007861625315072729</v>
+        <v>0.01493494521366756</v>
       </c>
       <c r="D4">
-        <v>0.03573109850829237</v>
+        <v>0.1078758661845505</v>
       </c>
       <c r="E4">
-        <v>0.0809023613816926</v>
+        <v>0.131026918720238</v>
       </c>
       <c r="F4">
-        <v>3.442465299513259</v>
+        <v>2.54605633832665</v>
       </c>
       <c r="G4">
-        <v>3.469152742461773</v>
+        <v>1.991836982531879</v>
       </c>
       <c r="H4">
-        <v>1.759046718004413</v>
+        <v>1.525089552693203</v>
       </c>
       <c r="I4">
-        <v>2.341656654426444</v>
+        <v>1.515082758864764</v>
       </c>
       <c r="J4">
-        <v>0.2187805282264605</v>
+        <v>0.2030360327599112</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007667263748224684</v>
+        <v>0.01492897907301582</v>
       </c>
       <c r="D5">
-        <v>0.0357072266293621</v>
+        <v>0.1079289492167206</v>
       </c>
       <c r="E5">
-        <v>0.07871399032823589</v>
+        <v>0.1308094599912728</v>
       </c>
       <c r="F5">
-        <v>3.30357936887907</v>
+        <v>2.518616852301363</v>
       </c>
       <c r="G5">
-        <v>3.32110521799413</v>
+        <v>1.960304707828357</v>
       </c>
       <c r="H5">
-        <v>1.691258118012854</v>
+        <v>1.512519096264384</v>
       </c>
       <c r="I5">
-        <v>2.244128972189699</v>
+        <v>1.494965473062436</v>
       </c>
       <c r="J5">
-        <v>0.2105187272972913</v>
+        <v>0.2015771646160687</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007635442227705624</v>
+        <v>0.01492811523675641</v>
       </c>
       <c r="D6">
-        <v>0.03570354555653865</v>
+        <v>0.1079379064656887</v>
       </c>
       <c r="E6">
-        <v>0.07835382784661249</v>
+        <v>0.1307744581071653</v>
       </c>
       <c r="F6">
-        <v>3.280666917960332</v>
+        <v>2.514089493074948</v>
       </c>
       <c r="G6">
-        <v>3.296672313255641</v>
+        <v>1.955092470030394</v>
       </c>
       <c r="H6">
-        <v>1.680078584031151</v>
+        <v>1.510448431505068</v>
       </c>
       <c r="I6">
-        <v>2.228035951424189</v>
+        <v>1.491642714945286</v>
       </c>
       <c r="J6">
-        <v>0.20915661830022</v>
+        <v>0.201337129737297</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007858973030558047</v>
+        <v>0.01493485623955237</v>
       </c>
       <c r="D7">
-        <v>0.03573075726777164</v>
+        <v>0.107876572505458</v>
       </c>
       <c r="E7">
-        <v>0.08087262811456952</v>
+        <v>0.1310239117326404</v>
       </c>
       <c r="F7">
-        <v>3.440581950115813</v>
+        <v>2.545684335439091</v>
       </c>
       <c r="G7">
-        <v>3.467145767639607</v>
+        <v>1.991410136056231</v>
       </c>
       <c r="H7">
-        <v>1.758127221963235</v>
+        <v>1.524918905083126</v>
       </c>
       <c r="I7">
-        <v>2.34033438095463</v>
+        <v>1.51481026067043</v>
       </c>
       <c r="J7">
-        <v>0.2186684359749478</v>
+        <v>0.2030162096227315</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008919797489717496</v>
+        <v>0.01498313195365952</v>
       </c>
       <c r="D8">
-        <v>0.03589587301558872</v>
+        <v>0.1076266656029061</v>
       </c>
       <c r="E8">
-        <v>0.09250783942806606</v>
+        <v>0.1322861816228311</v>
       </c>
       <c r="F8">
-        <v>4.171037647806571</v>
+        <v>2.689355098671768</v>
       </c>
       <c r="G8">
-        <v>4.244472956839587</v>
+        <v>2.155159211585385</v>
       </c>
       <c r="H8">
-        <v>2.115215810856171</v>
+        <v>1.591214328018481</v>
       </c>
       <c r="I8">
-        <v>2.852745988972956</v>
+        <v>1.619646549082972</v>
       </c>
       <c r="J8">
-        <v>0.2622516447961232</v>
+        <v>0.2107493281299782</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01137186129554024</v>
+        <v>0.01514534290891945</v>
       </c>
       <c r="D9">
-        <v>0.03642953767929979</v>
+        <v>0.1072110100352495</v>
       </c>
       <c r="E9">
-        <v>0.1178065177065157</v>
+        <v>0.1353479623009939</v>
       </c>
       <c r="F9">
-        <v>5.727994588383609</v>
+        <v>2.986798958259868</v>
       </c>
       <c r="G9">
-        <v>5.896217561381661</v>
+        <v>2.489277187964092</v>
       </c>
       <c r="H9">
-        <v>2.878714145874994</v>
+        <v>1.730198639824835</v>
       </c>
       <c r="I9">
-        <v>3.942827480289054</v>
+        <v>1.834892252438181</v>
       </c>
       <c r="J9">
-        <v>0.3557208902402493</v>
+        <v>0.2271041262266635</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01353333104737686</v>
+        <v>0.01530665051597424</v>
       </c>
       <c r="D10">
-        <v>0.0370128631011597</v>
+        <v>0.106950868481702</v>
       </c>
       <c r="E10">
-        <v>0.1386503066875235</v>
+        <v>0.1379613603961367</v>
       </c>
       <c r="F10">
-        <v>6.991068860108498</v>
+        <v>3.215348962425963</v>
       </c>
       <c r="G10">
-        <v>7.232993747620185</v>
+        <v>2.743165916485282</v>
       </c>
       <c r="H10">
-        <v>3.499812109724871</v>
+        <v>1.837998461700522</v>
       </c>
       <c r="I10">
-        <v>4.825739726944903</v>
+        <v>1.999237326983746</v>
       </c>
       <c r="J10">
-        <v>0.4319785675799466</v>
+        <v>0.2398729209589163</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0146365713858323</v>
+        <v>0.01538939953728047</v>
       </c>
       <c r="D11">
-        <v>0.03734022850654473</v>
+        <v>0.1068423256005797</v>
       </c>
       <c r="E11">
-        <v>0.1488432932450792</v>
+        <v>0.1392307378498572</v>
       </c>
       <c r="F11">
-        <v>7.604443111047146</v>
+        <v>3.321597369311462</v>
       </c>
       <c r="G11">
-        <v>7.881477965644535</v>
+        <v>2.86060160487591</v>
       </c>
       <c r="H11">
-        <v>3.801869965549088</v>
+        <v>1.888322784717161</v>
       </c>
       <c r="I11">
-        <v>5.254171093917478</v>
+        <v>2.075419860908085</v>
       </c>
       <c r="J11">
-        <v>0.4691245925943122</v>
+        <v>0.2458514306728858</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01507642521394104</v>
+        <v>0.01542209969077035</v>
       </c>
       <c r="D12">
-        <v>0.03747553801725312</v>
+        <v>0.1068026307307055</v>
       </c>
       <c r="E12">
-        <v>0.1528297017755165</v>
+        <v>0.1397231131014287</v>
       </c>
       <c r="F12">
-        <v>7.843719785168787</v>
+        <v>3.362166558345166</v>
       </c>
       <c r="G12">
-        <v>8.134356041392437</v>
+        <v>2.905359000080807</v>
       </c>
       <c r="H12">
-        <v>3.91977273123058</v>
+        <v>1.907567967969214</v>
       </c>
       <c r="I12">
-        <v>5.421252730357537</v>
+        <v>2.10447810318459</v>
       </c>
       <c r="J12">
-        <v>0.4836335376246126</v>
+        <v>0.2481402578855665</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01498061986289656</v>
+        <v>0.01541499613716724</v>
       </c>
       <c r="D13">
-        <v>0.03744584489398672</v>
+        <v>0.1068111171222026</v>
       </c>
       <c r="E13">
-        <v>0.151965072908876</v>
+        <v>0.1396165496052291</v>
       </c>
       <c r="F13">
-        <v>7.791848860842038</v>
+        <v>3.353414228960958</v>
       </c>
       <c r="G13">
-        <v>8.079540713303572</v>
+        <v>2.895706797964408</v>
       </c>
       <c r="H13">
-        <v>3.894210269913003</v>
+        <v>1.903414733845182</v>
       </c>
       <c r="I13">
-        <v>5.385034603202115</v>
+        <v>2.098210485753555</v>
       </c>
       <c r="J13">
-        <v>0.4804874110921702</v>
+        <v>0.2476462033042139</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991888</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01467228297447321</v>
+        <v>0.01539206234106061</v>
       </c>
       <c r="D14">
-        <v>0.03735111642232258</v>
+        <v>0.1068390316652721</v>
       </c>
       <c r="E14">
-        <v>0.1491685593094267</v>
+        <v>0.1392710109423483</v>
       </c>
       <c r="F14">
-        <v>7.623978621126383</v>
+        <v>3.324928259606111</v>
       </c>
       <c r="G14">
-        <v>7.902125810222799</v>
+        <v>2.864278023235727</v>
       </c>
       <c r="H14">
-        <v>3.811494581261798</v>
+        <v>1.889902299789014</v>
       </c>
       <c r="I14">
-        <v>5.267813293361115</v>
+        <v>2.077806269587768</v>
       </c>
       <c r="J14">
-        <v>0.4703087854668411</v>
+        <v>0.2460392322431488</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01448646141102117</v>
+        <v>0.01537819301056587</v>
       </c>
       <c r="D15">
-        <v>0.03729465515127695</v>
+        <v>0.1068563134678246</v>
       </c>
       <c r="E15">
-        <v>0.1474729229138063</v>
+        <v>0.139060884168579</v>
       </c>
       <c r="F15">
-        <v>7.522114295710026</v>
+        <v>3.30752365901111</v>
       </c>
       <c r="G15">
-        <v>7.794457654748271</v>
+        <v>2.845064614609782</v>
       </c>
       <c r="H15">
-        <v>3.761311642453165</v>
+        <v>1.881650193899588</v>
       </c>
       <c r="I15">
-        <v>5.196676587040827</v>
+        <v>2.065335547081531</v>
       </c>
       <c r="J15">
-        <v>0.4641347727121143</v>
+        <v>0.245058172055721</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193845</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01346402712051287</v>
+        <v>0.01530143269831896</v>
       </c>
       <c r="D16">
-        <v>0.03699290722343873</v>
+        <v>0.1069581590767981</v>
       </c>
       <c r="E16">
-        <v>0.1380004187295221</v>
+        <v>0.1378800333383836</v>
       </c>
       <c r="F16">
-        <v>6.951877813038863</v>
+        <v>3.208451882713064</v>
       </c>
       <c r="G16">
-        <v>7.191546260990549</v>
+        <v>2.735530945545747</v>
       </c>
       <c r="H16">
-        <v>3.480521534138859</v>
+        <v>1.834735823243193</v>
       </c>
       <c r="I16">
-        <v>4.798358879436535</v>
+        <v>1.994287658834168</v>
       </c>
       <c r="J16">
-        <v>0.4296075351679463</v>
+        <v>0.2394856696685252</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01287054119747211</v>
+        <v>0.01525675478661981</v>
       </c>
       <c r="D17">
-        <v>0.0368251773618562</v>
+        <v>0.1070231466112914</v>
       </c>
       <c r="E17">
-        <v>0.1323869125033355</v>
+        <v>0.1371763219990427</v>
       </c>
       <c r="F17">
-        <v>6.612898148104506</v>
+        <v>3.14826367969124</v>
       </c>
       <c r="G17">
-        <v>6.832976455614357</v>
+        <v>2.668838223620924</v>
       </c>
       <c r="H17">
-        <v>3.313717506190756</v>
+        <v>1.806287179186711</v>
       </c>
       <c r="I17">
-        <v>4.561494896412256</v>
+        <v>1.951069736925746</v>
       </c>
       <c r="J17">
-        <v>0.4091119700021437</v>
+        <v>0.2361109650742321</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0125401193277348</v>
+        <v>0.01523193803653911</v>
       </c>
       <c r="D18">
-        <v>0.03673435840940664</v>
+        <v>0.1070614478785372</v>
       </c>
       <c r="E18">
-        <v>0.1292233410638062</v>
+        <v>0.1367791389186976</v>
       </c>
       <c r="F18">
-        <v>6.421474195003839</v>
+        <v>3.113859156461672</v>
       </c>
       <c r="G18">
-        <v>6.630428005773126</v>
+        <v>2.630660485871488</v>
       </c>
       <c r="H18">
-        <v>3.219561549290972</v>
+        <v>1.790045062812396</v>
       </c>
       <c r="I18">
-        <v>4.427706712678429</v>
+        <v>1.926345376060993</v>
       </c>
       <c r="J18">
-        <v>0.3975481538099217</v>
+        <v>0.2341858897510889</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033279</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01242999714100179</v>
+        <v>0.01522368626345028</v>
       </c>
       <c r="D19">
-        <v>0.03670451772556538</v>
+        <v>0.107074574439928</v>
       </c>
       <c r="E19">
-        <v>0.1281627582895268</v>
+        <v>0.1366459569529681</v>
       </c>
       <c r="F19">
-        <v>6.357232980590368</v>
+        <v>3.102246932673978</v>
       </c>
       <c r="G19">
-        <v>6.562442766670756</v>
+        <v>2.617765203410102</v>
       </c>
       <c r="H19">
-        <v>3.187969710917059</v>
+        <v>1.784566399661003</v>
       </c>
       <c r="I19">
-        <v>4.382802828370473</v>
+        <v>1.917996894752775</v>
       </c>
       <c r="J19">
-        <v>0.3936690698178893</v>
+        <v>0.233536820561298</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01293255644036151</v>
+        <v>0.01526141954097682</v>
       </c>
       <c r="D20">
-        <v>0.03684243203523963</v>
+        <v>0.1070161331439694</v>
       </c>
       <c r="E20">
-        <v>0.1329775783139873</v>
+        <v>0.1372504487062365</v>
       </c>
       <c r="F20">
-        <v>6.648606702787504</v>
+        <v>3.154648601167025</v>
       </c>
       <c r="G20">
-        <v>6.870755087868588</v>
+        <v>2.675918868217252</v>
       </c>
       <c r="H20">
-        <v>3.331284714205253</v>
+        <v>1.80930305883669</v>
       </c>
       <c r="I20">
-        <v>4.58644955056343</v>
+        <v>1.955656510109549</v>
       </c>
       <c r="J20">
-        <v>0.4112699277782212</v>
+        <v>0.2364685524691055</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01476220390896898</v>
+        <v>0.01539876136661178</v>
       </c>
       <c r="D21">
-        <v>0.03737860931203851</v>
+        <v>0.1068307942810338</v>
       </c>
       <c r="E21">
-        <v>0.1499863032547459</v>
+        <v>0.1393721858826176</v>
       </c>
       <c r="F21">
-        <v>7.673082794974533</v>
+        <v>3.333286121714821</v>
       </c>
       <c r="G21">
-        <v>7.954024443004698</v>
+        <v>2.873501560967384</v>
       </c>
       <c r="H21">
-        <v>3.835688013776121</v>
+        <v>1.893866085626826</v>
       </c>
       <c r="I21">
-        <v>5.302103346159129</v>
+        <v>2.083793752641668</v>
       </c>
       <c r="J21">
-        <v>0.4732856523887676</v>
+        <v>0.2465105592143289</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01609011151134609</v>
+        <v>0.01549648643368684</v>
       </c>
       <c r="D22">
-        <v>0.03779691782188799</v>
+        <v>0.1067178711083989</v>
       </c>
       <c r="E22">
-        <v>0.1618564494668071</v>
+        <v>0.1408270527599846</v>
       </c>
       <c r="F22">
-        <v>8.384434032457932</v>
+        <v>3.451993562778256</v>
       </c>
       <c r="G22">
-        <v>8.705638174616183</v>
+        <v>3.004310268964844</v>
       </c>
       <c r="H22">
-        <v>4.18634538392331</v>
+        <v>1.95023309568046</v>
       </c>
       <c r="I22">
-        <v>5.798730156424625</v>
+        <v>2.168762892302425</v>
       </c>
       <c r="J22">
-        <v>0.5164565602153033</v>
+        <v>0.2532189225222652</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01536728209657312</v>
+        <v>0.01544359403044027</v>
       </c>
       <c r="D23">
-        <v>0.03756642051129599</v>
+        <v>0.106777389641235</v>
       </c>
       <c r="E23">
-        <v>0.1554423258390898</v>
+        <v>0.1400442865527616</v>
       </c>
       <c r="F23">
-        <v>8.000370022655915</v>
+        <v>3.388455569686556</v>
       </c>
       <c r="G23">
-        <v>8.299885069181073</v>
+        <v>2.934339055916723</v>
       </c>
       <c r="H23">
-        <v>3.996982111862053</v>
+        <v>1.92004708761101</v>
       </c>
       <c r="I23">
-        <v>5.530624330081167</v>
+        <v>2.123299507958961</v>
       </c>
       <c r="J23">
-        <v>0.4931376419435054</v>
+        <v>0.2496250895906797</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01290448611151263</v>
+        <v>0.01525930789997432</v>
       </c>
       <c r="D24">
-        <v>0.03683461389159604</v>
+        <v>0.1070193010076617</v>
       </c>
       <c r="E24">
-        <v>0.1327103416095525</v>
+        <v>0.1372169130122174</v>
       </c>
       <c r="F24">
-        <v>6.632452190510378</v>
+        <v>3.151761360513888</v>
       </c>
       <c r="G24">
-        <v>6.853664268869636</v>
+        <v>2.672717196094652</v>
       </c>
       <c r="H24">
-        <v>3.323337205006226</v>
+        <v>1.80793922673837</v>
       </c>
       <c r="I24">
-        <v>4.57516018423604</v>
+        <v>1.953582449725815</v>
       </c>
       <c r="J24">
-        <v>0.4102936382306552</v>
+        <v>0.2363068402490285</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0106568211486433</v>
+        <v>0.01509413279898197</v>
       </c>
       <c r="D25">
-        <v>0.03625713162518052</v>
+        <v>0.1073155030956308</v>
       </c>
       <c r="E25">
-        <v>0.1106288984943369</v>
+        <v>0.1344562352989378</v>
       </c>
       <c r="F25">
-        <v>5.289520436180567</v>
+        <v>2.904605856285372</v>
       </c>
       <c r="G25">
-        <v>5.431584015907049</v>
+        <v>2.397447652994913</v>
       </c>
       <c r="H25">
-        <v>2.663428207795789</v>
+        <v>1.691616583404311</v>
       </c>
       <c r="I25">
-        <v>3.636065078659527</v>
+        <v>1.775596163979117</v>
       </c>
       <c r="J25">
-        <v>0.329331509362305</v>
+        <v>0.2225495127181603</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_79/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01500074871952961</v>
+        <v>0.009228450266867583</v>
       </c>
       <c r="D2">
-        <v>0.1075639941004014</v>
+        <v>0.03595298443326556</v>
       </c>
       <c r="E2">
-        <v>0.1326676520867736</v>
+        <v>0.09580557568164139</v>
       </c>
       <c r="F2">
-        <v>2.729329427611702</v>
+        <v>4.376060458548551</v>
       </c>
       <c r="G2">
-        <v>2.200389605886585</v>
+        <v>4.46232009424034</v>
       </c>
       <c r="H2">
-        <v>1.60977693953663</v>
+        <v>2.215589627994007</v>
       </c>
       <c r="I2">
-        <v>1.648694371904611</v>
+        <v>2.996434061969936</v>
       </c>
       <c r="J2">
-        <v>0.2129241647032245</v>
+        <v>0.2745193973878628</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01495475488380649</v>
+        <v>0.008358387162740399</v>
       </c>
       <c r="D3">
-        <v>0.1077514045516297</v>
+        <v>0.03580181700495122</v>
       </c>
       <c r="E3">
-        <v>0.13160562399489</v>
+        <v>0.0864119290348917</v>
       </c>
       <c r="F3">
-        <v>2.614574432376287</v>
+        <v>3.789864439992613</v>
       </c>
       <c r="G3">
-        <v>2.070184954696117</v>
+        <v>3.839093852237426</v>
       </c>
       <c r="H3">
-        <v>1.556616617359111</v>
+        <v>1.928766487874043</v>
       </c>
       <c r="I3">
-        <v>1.565173675784195</v>
+        <v>2.585456446578661</v>
       </c>
       <c r="J3">
-        <v>0.2067062043402927</v>
+        <v>0.2394827407527487</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01493494521366756</v>
+        <v>0.007861625315072729</v>
       </c>
       <c r="D4">
-        <v>0.1078758661845505</v>
+        <v>0.03573109850805833</v>
       </c>
       <c r="E4">
-        <v>0.131026918720238</v>
+        <v>0.0809023613816926</v>
       </c>
       <c r="F4">
-        <v>2.54605633832665</v>
+        <v>3.442465299513287</v>
       </c>
       <c r="G4">
-        <v>1.991836982531879</v>
+        <v>3.469152742461972</v>
       </c>
       <c r="H4">
-        <v>1.525089552693203</v>
+        <v>1.759046718004328</v>
       </c>
       <c r="I4">
-        <v>1.515082758864764</v>
+        <v>2.341656654426444</v>
       </c>
       <c r="J4">
-        <v>0.2030360327599112</v>
+        <v>0.2187805282264605</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01492897907301582</v>
+        <v>0.007667263748473374</v>
       </c>
       <c r="D5">
-        <v>0.1079289492167206</v>
+        <v>0.03570722662960657</v>
       </c>
       <c r="E5">
-        <v>0.1308094599912728</v>
+        <v>0.07871399032827497</v>
       </c>
       <c r="F5">
-        <v>2.518616852301363</v>
+        <v>3.303579368879099</v>
       </c>
       <c r="G5">
-        <v>1.960304707828357</v>
+        <v>3.321105217994159</v>
       </c>
       <c r="H5">
-        <v>1.512519096264384</v>
+        <v>1.691258118012826</v>
       </c>
       <c r="I5">
-        <v>1.494965473062436</v>
+        <v>2.244128972189699</v>
       </c>
       <c r="J5">
-        <v>0.2015771646160687</v>
+        <v>0.2105187272972344</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01492811523675641</v>
+        <v>0.007635442227016398</v>
       </c>
       <c r="D6">
-        <v>0.1079379064656887</v>
+        <v>0.03570354555654331</v>
       </c>
       <c r="E6">
-        <v>0.1307744581071653</v>
+        <v>0.0783538278465592</v>
       </c>
       <c r="F6">
-        <v>2.514089493074948</v>
+        <v>3.280666917960332</v>
       </c>
       <c r="G6">
-        <v>1.955092470030394</v>
+        <v>3.296672313255613</v>
       </c>
       <c r="H6">
-        <v>1.510448431505068</v>
+        <v>1.680078584031293</v>
       </c>
       <c r="I6">
-        <v>1.491642714945286</v>
+        <v>2.228035951424175</v>
       </c>
       <c r="J6">
-        <v>0.201337129737297</v>
+        <v>0.2091566183001703</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01493485623955237</v>
+        <v>0.007858973030817396</v>
       </c>
       <c r="D7">
-        <v>0.107876572505458</v>
+        <v>0.0357307572677692</v>
       </c>
       <c r="E7">
-        <v>0.1310239117326404</v>
+        <v>0.08087262811453044</v>
       </c>
       <c r="F7">
-        <v>2.545684335439091</v>
+        <v>3.440581950115785</v>
       </c>
       <c r="G7">
-        <v>1.991410136056231</v>
+        <v>3.467145767639579</v>
       </c>
       <c r="H7">
-        <v>1.524918905083126</v>
+        <v>1.758127221963235</v>
       </c>
       <c r="I7">
-        <v>1.51481026067043</v>
+        <v>2.340334380954658</v>
       </c>
       <c r="J7">
-        <v>0.2030162096227315</v>
+        <v>0.2186684359751325</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01498313195365952</v>
+        <v>0.008919797489713943</v>
       </c>
       <c r="D8">
-        <v>0.1076266656029061</v>
+        <v>0.0358958730155936</v>
       </c>
       <c r="E8">
-        <v>0.1322861816228311</v>
+        <v>0.09250783942810514</v>
       </c>
       <c r="F8">
-        <v>2.689355098671768</v>
+        <v>4.171037647806571</v>
       </c>
       <c r="G8">
-        <v>2.155159211585385</v>
+        <v>4.244472956839559</v>
       </c>
       <c r="H8">
-        <v>1.591214328018481</v>
+        <v>2.115215810856171</v>
       </c>
       <c r="I8">
-        <v>1.619646549082972</v>
+        <v>2.85274598897297</v>
       </c>
       <c r="J8">
-        <v>0.2107493281299782</v>
+        <v>0.2622516447961374</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01514534290891945</v>
+        <v>0.01137186129563972</v>
       </c>
       <c r="D9">
-        <v>0.1072110100352495</v>
+        <v>0.03642953767929269</v>
       </c>
       <c r="E9">
-        <v>0.1353479623009939</v>
+        <v>0.1178065177065157</v>
       </c>
       <c r="F9">
-        <v>2.986798958259868</v>
+        <v>5.727994588383609</v>
       </c>
       <c r="G9">
-        <v>2.489277187964092</v>
+        <v>5.896217561381661</v>
       </c>
       <c r="H9">
-        <v>1.730198639824835</v>
+        <v>2.878714145875051</v>
       </c>
       <c r="I9">
-        <v>1.834892252438181</v>
+        <v>3.942827480289054</v>
       </c>
       <c r="J9">
-        <v>0.2271041262266635</v>
+        <v>0.3557208902402635</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01530665051597424</v>
+        <v>0.01353333104715304</v>
       </c>
       <c r="D10">
-        <v>0.106950868481702</v>
+        <v>0.03701286310135155</v>
       </c>
       <c r="E10">
-        <v>0.1379613603961367</v>
+        <v>0.1386503066875626</v>
       </c>
       <c r="F10">
-        <v>3.215348962425963</v>
+        <v>6.991068860108584</v>
       </c>
       <c r="G10">
-        <v>2.743165916485282</v>
+        <v>7.232993747620242</v>
       </c>
       <c r="H10">
-        <v>1.837998461700522</v>
+        <v>3.499812109724928</v>
       </c>
       <c r="I10">
-        <v>1.999237326983746</v>
+        <v>4.825739726944931</v>
       </c>
       <c r="J10">
-        <v>0.2398729209589163</v>
+        <v>0.4319785675802024</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01538939953728047</v>
+        <v>0.01463657138512175</v>
       </c>
       <c r="D11">
-        <v>0.1068423256005797</v>
+        <v>0.03734022850636576</v>
       </c>
       <c r="E11">
-        <v>0.1392307378498572</v>
+        <v>0.1488432932450721</v>
       </c>
       <c r="F11">
-        <v>3.321597369311462</v>
+        <v>7.604443111047175</v>
       </c>
       <c r="G11">
-        <v>2.86060160487591</v>
+        <v>7.881477965644535</v>
       </c>
       <c r="H11">
-        <v>1.888322784717161</v>
+        <v>3.801869965549145</v>
       </c>
       <c r="I11">
-        <v>2.075419860908085</v>
+        <v>5.254171093917449</v>
       </c>
       <c r="J11">
-        <v>0.2458514306728858</v>
+        <v>0.4691245925944258</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01542209969077035</v>
+        <v>0.01507642521372432</v>
       </c>
       <c r="D12">
-        <v>0.1068026307307055</v>
+        <v>0.03747553801703463</v>
       </c>
       <c r="E12">
-        <v>0.1397231131014287</v>
+        <v>0.1528297017755129</v>
       </c>
       <c r="F12">
-        <v>3.362166558345166</v>
+        <v>7.843719785168815</v>
       </c>
       <c r="G12">
-        <v>2.905359000080807</v>
+        <v>8.13435604139255</v>
       </c>
       <c r="H12">
-        <v>1.907567967969214</v>
+        <v>3.919772731230523</v>
       </c>
       <c r="I12">
-        <v>2.10447810318459</v>
+        <v>5.421252730357537</v>
       </c>
       <c r="J12">
-        <v>0.2481402578855665</v>
+        <v>0.4836335376244847</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01541499613716724</v>
+        <v>0.01498061986309907</v>
       </c>
       <c r="D13">
-        <v>0.1068111171222026</v>
+        <v>0.03744584489376601</v>
       </c>
       <c r="E13">
-        <v>0.1396165496052291</v>
+        <v>0.1519650729088688</v>
       </c>
       <c r="F13">
-        <v>3.353414228960958</v>
+        <v>7.791848860842094</v>
       </c>
       <c r="G13">
-        <v>2.895706797964408</v>
+        <v>8.079540713303629</v>
       </c>
       <c r="H13">
-        <v>1.903414733845182</v>
+        <v>3.894210269913003</v>
       </c>
       <c r="I13">
-        <v>2.098210485753555</v>
+        <v>5.385034603202143</v>
       </c>
       <c r="J13">
-        <v>0.2476462033042139</v>
+        <v>0.4804874110921418</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01539206234106061</v>
+        <v>0.01467228297446255</v>
       </c>
       <c r="D14">
-        <v>0.1068390316652721</v>
+        <v>0.03735111642213385</v>
       </c>
       <c r="E14">
-        <v>0.1392710109423483</v>
+        <v>0.1491685593093948</v>
       </c>
       <c r="F14">
-        <v>3.324928259606111</v>
+        <v>7.62397862112644</v>
       </c>
       <c r="G14">
-        <v>2.864278023235727</v>
+        <v>7.902125810222856</v>
       </c>
       <c r="H14">
-        <v>1.889902299789014</v>
+        <v>3.811494581261798</v>
       </c>
       <c r="I14">
-        <v>2.077806269587768</v>
+        <v>5.267813293361172</v>
       </c>
       <c r="J14">
-        <v>0.2460392322431488</v>
+        <v>0.4703087854667132</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796553</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01537819301056587</v>
+        <v>0.01448646141087195</v>
       </c>
       <c r="D15">
-        <v>0.1068563134678246</v>
+        <v>0.03729465515105268</v>
       </c>
       <c r="E15">
-        <v>0.139060884168579</v>
+        <v>0.1474729229137459</v>
       </c>
       <c r="F15">
-        <v>3.30752365901111</v>
+        <v>7.522114295710111</v>
       </c>
       <c r="G15">
-        <v>2.845064614609782</v>
+        <v>7.794457654748385</v>
       </c>
       <c r="H15">
-        <v>1.881650193899588</v>
+        <v>3.761311642453109</v>
       </c>
       <c r="I15">
-        <v>2.065335547081531</v>
+        <v>5.196676587040884</v>
       </c>
       <c r="J15">
-        <v>0.245058172055721</v>
+        <v>0.4641347727119438</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01530143269831896</v>
+        <v>0.01346402712074024</v>
       </c>
       <c r="D16">
-        <v>0.1069581590767981</v>
+        <v>0.03699290722325754</v>
       </c>
       <c r="E16">
-        <v>0.1378800333383836</v>
+        <v>0.1380004187295079</v>
       </c>
       <c r="F16">
-        <v>3.208451882713064</v>
+        <v>6.951877813038749</v>
       </c>
       <c r="G16">
-        <v>2.735530945545747</v>
+        <v>7.191546260990492</v>
       </c>
       <c r="H16">
-        <v>1.834735823243193</v>
+        <v>3.480521534138745</v>
       </c>
       <c r="I16">
-        <v>1.994287658834168</v>
+        <v>4.798358879436449</v>
       </c>
       <c r="J16">
-        <v>0.2394856696685252</v>
+        <v>0.4296075351679178</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01525675478661981</v>
+        <v>0.01287054119780251</v>
       </c>
       <c r="D17">
-        <v>0.1070231466112914</v>
+        <v>0.0368251773618562</v>
       </c>
       <c r="E17">
-        <v>0.1371763219990427</v>
+        <v>0.1323869125033106</v>
       </c>
       <c r="F17">
-        <v>3.14826367969124</v>
+        <v>6.612898148104534</v>
       </c>
       <c r="G17">
-        <v>2.668838223620924</v>
+        <v>6.832976455614187</v>
       </c>
       <c r="H17">
-        <v>1.806287179186711</v>
+        <v>3.313717506190756</v>
       </c>
       <c r="I17">
-        <v>1.951069736925746</v>
+        <v>4.561494896412228</v>
       </c>
       <c r="J17">
-        <v>0.2361109650742321</v>
+        <v>0.4091119700021579</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01523193803653911</v>
+        <v>0.0125401193277348</v>
       </c>
       <c r="D18">
-        <v>0.1070614478785372</v>
+        <v>0.03673435840945194</v>
       </c>
       <c r="E18">
-        <v>0.1367791389186976</v>
+        <v>0.1292233410638026</v>
       </c>
       <c r="F18">
-        <v>3.113859156461672</v>
+        <v>6.421474195003782</v>
       </c>
       <c r="G18">
-        <v>2.630660485871488</v>
+        <v>6.63042800577324</v>
       </c>
       <c r="H18">
-        <v>1.790045062812396</v>
+        <v>3.219561549291029</v>
       </c>
       <c r="I18">
-        <v>1.926345376060993</v>
+        <v>4.427706712678429</v>
       </c>
       <c r="J18">
-        <v>0.2341858897510889</v>
+        <v>0.3975481538100496</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01522368626345028</v>
+        <v>0.01242999714089876</v>
       </c>
       <c r="D19">
-        <v>0.107074574439928</v>
+        <v>0.03670451772557159</v>
       </c>
       <c r="E19">
-        <v>0.1366459569529681</v>
+        <v>0.1281627582895268</v>
       </c>
       <c r="F19">
-        <v>3.102246932673978</v>
+        <v>6.357232980590311</v>
       </c>
       <c r="G19">
-        <v>2.617765203410102</v>
+        <v>6.562442766670756</v>
       </c>
       <c r="H19">
-        <v>1.784566399661003</v>
+        <v>3.187969710917059</v>
       </c>
       <c r="I19">
-        <v>1.917996894752775</v>
+        <v>4.382802828370444</v>
       </c>
       <c r="J19">
-        <v>0.233536820561298</v>
+        <v>0.3936690698178467</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01526141954097682</v>
+        <v>0.01293255644070257</v>
       </c>
       <c r="D20">
-        <v>0.1070161331439694</v>
+        <v>0.0368424320352494</v>
       </c>
       <c r="E20">
-        <v>0.1372504487062365</v>
+        <v>0.1329775783140654</v>
       </c>
       <c r="F20">
-        <v>3.154648601167025</v>
+        <v>6.648606702787532</v>
       </c>
       <c r="G20">
-        <v>2.675918868217252</v>
+        <v>6.870755087868417</v>
       </c>
       <c r="H20">
-        <v>1.80930305883669</v>
+        <v>3.331284714205253</v>
       </c>
       <c r="I20">
-        <v>1.955656510109549</v>
+        <v>4.58644955056343</v>
       </c>
       <c r="J20">
-        <v>0.2364685524691055</v>
+        <v>0.4112699277780365</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01539876136661178</v>
+        <v>0.01476220390862082</v>
       </c>
       <c r="D21">
-        <v>0.1068307942810338</v>
+        <v>0.03737860931279968</v>
       </c>
       <c r="E21">
-        <v>0.1393721858826176</v>
+        <v>0.1499863032547246</v>
       </c>
       <c r="F21">
-        <v>3.333286121714821</v>
+        <v>7.673082794974562</v>
       </c>
       <c r="G21">
-        <v>2.873501560967384</v>
+        <v>7.954024443004755</v>
       </c>
       <c r="H21">
-        <v>1.893866085626826</v>
+        <v>3.835688013776235</v>
       </c>
       <c r="I21">
-        <v>2.083793752641668</v>
+        <v>5.302103346159157</v>
       </c>
       <c r="J21">
-        <v>0.2465105592143289</v>
+        <v>0.4732856523887108</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01549648643368684</v>
+        <v>0.01609011151186834</v>
       </c>
       <c r="D22">
-        <v>0.1067178711083989</v>
+        <v>0.03779691782207362</v>
       </c>
       <c r="E22">
-        <v>0.1408270527599846</v>
+        <v>0.1618564494668071</v>
       </c>
       <c r="F22">
-        <v>3.451993562778256</v>
+        <v>8.38443403245796</v>
       </c>
       <c r="G22">
-        <v>3.004310268964844</v>
+        <v>8.70563817461624</v>
       </c>
       <c r="H22">
-        <v>1.95023309568046</v>
+        <v>4.18634538392331</v>
       </c>
       <c r="I22">
-        <v>2.168762892302425</v>
+        <v>5.79873015642471</v>
       </c>
       <c r="J22">
-        <v>0.2532189225222652</v>
+        <v>0.516456560215417</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01544359403044027</v>
+        <v>0.01536728209692839</v>
       </c>
       <c r="D23">
-        <v>0.106777389641235</v>
+        <v>0.03756642051130976</v>
       </c>
       <c r="E23">
-        <v>0.1400442865527616</v>
+        <v>0.1554423258390898</v>
       </c>
       <c r="F23">
-        <v>3.388455569686556</v>
+        <v>8.000370022655943</v>
       </c>
       <c r="G23">
-        <v>2.934339055916723</v>
+        <v>8.299885069181016</v>
       </c>
       <c r="H23">
-        <v>1.92004708761101</v>
+        <v>3.996982111861996</v>
       </c>
       <c r="I23">
-        <v>2.123299507958961</v>
+        <v>5.530624330081167</v>
       </c>
       <c r="J23">
-        <v>0.2496250895906797</v>
+        <v>0.4931376419434912</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01525930789997432</v>
+        <v>0.01290448611159789</v>
       </c>
       <c r="D24">
-        <v>0.1070193010076617</v>
+        <v>0.03683461389141884</v>
       </c>
       <c r="E24">
-        <v>0.1372169130122174</v>
+        <v>0.132710341609549</v>
       </c>
       <c r="F24">
-        <v>3.151761360513888</v>
+        <v>6.632452190510406</v>
       </c>
       <c r="G24">
-        <v>2.672717196094652</v>
+        <v>6.853664268869693</v>
       </c>
       <c r="H24">
-        <v>1.80793922673837</v>
+        <v>3.323337205006226</v>
       </c>
       <c r="I24">
-        <v>1.953582449725815</v>
+        <v>4.575160184236097</v>
       </c>
       <c r="J24">
-        <v>0.2363068402490285</v>
+        <v>0.410293638230641</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01509413279898197</v>
+        <v>0.01065682114843014</v>
       </c>
       <c r="D25">
-        <v>0.1073155030956308</v>
+        <v>0.03625713162496202</v>
       </c>
       <c r="E25">
-        <v>0.1344562352989378</v>
+        <v>0.1106288984943262</v>
       </c>
       <c r="F25">
-        <v>2.904605856285372</v>
+        <v>5.289520436180567</v>
       </c>
       <c r="G25">
-        <v>2.397447652994913</v>
+        <v>5.43158401590722</v>
       </c>
       <c r="H25">
-        <v>1.691616583404311</v>
+        <v>2.663428207795619</v>
       </c>
       <c r="I25">
-        <v>1.775596163979117</v>
+        <v>3.636065078659556</v>
       </c>
       <c r="J25">
-        <v>0.2225495127181603</v>
+        <v>0.3293315093622766</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
         <v>0</v>
